--- a/insurance-rules/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
+++ b/insurance-rules/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
@@ -66,15 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.neo.drools.model.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.model.fact.*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,22 +169,6 @@
     <t>Variables</t>
   </si>
   <si>
-    <t>com.neo.drools.model.request.SelfInsuranceRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.model.response.InsuranceRecommendResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.model.response.InsuranceRecommendResponse resp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neo.drools.constants.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function List&lt;InsuranceTypeResult&gt; addTypeResult(InsuranceTypeEnum typeEnum, int score){
          InsuranceTypeResult result = new InsuranceTypeResult(score, typeEnum);
          return Arrays.asList(result);
@@ -204,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.neo.drools.model.fact.InsuranceTypeResult res2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res2.setInsuranceTypeEnum($1);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,6 +219,27 @@
   <si>
     <t>InsuranceTypeEnum.ACCIDENT, 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.fact.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.constants.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.request.SelfInsuranceRequest</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.response.InsuranceRecommendResponse</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.response.InsuranceRecommendResponse resp</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.fact.InsuranceTypeResult res2</t>
   </si>
 </sst>
 </file>
@@ -684,7 +677,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,15 +718,15 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,23 +750,23 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,7 +782,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -800,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -811,18 +804,18 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
@@ -839,78 +832,78 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/insurance-rules/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
+++ b/insurance-rules/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>PRIORITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,53 +193,69 @@
     <t>InsuranceTypeEnum.ACCIDENT, 2</t>
   </si>
   <si>
+    <t>InsuranceTypeEnum.MEDICAL, 1</t>
+  </si>
+  <si>
+    <t>InsuranceTypeEnum.MEDICAL, 5</t>
+  </si>
+  <si>
+    <t>InsuranceTypeEnum.MEDICAL, 2</t>
+  </si>
+  <si>
+    <t>RuleTable insuranceDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req:SelfInsuranceRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceTypeEnum.ACCIDENT, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.fact.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.constants.*</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.request.SelfInsuranceRequest</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.response.InsuranceRecommendResponse</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.response.InsuranceRecommendResponse resp</t>
+  </si>
+  <si>
+    <t>com.dafy.drools.model.fact.InsuranceTypeResult res2</t>
+  </si>
+  <si>
+    <t>req.getFamilyIncomeExpenseInfo().getFamilyIncome()&gt;=$1,req.getFamilyIncomeExpenseInfo().getFamilyIncome()&lt;$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req.getFamilyIncomeExpenseInfo().getIncomeTypeList().contains($1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomeTypeEnum.INVEST</t>
+  </si>
+  <si>
     <t>InsuranceTypeEnum.SAVING, 1</t>
-  </si>
-  <si>
-    <t>InsuranceTypeEnum.MEDICAL, 1</t>
-  </si>
-  <si>
-    <t>InsuranceTypeEnum.MEDICAL, 5</t>
-  </si>
-  <si>
-    <t>InsuranceTypeEnum.MEDICAL, 2</t>
-  </si>
-  <si>
-    <t>RuleTable insuranceDemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>req:SelfInsuranceRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>req.getFamilyIncomeExpenseInfo().getFamilyIncome()&gt;=$1,req.getFamilyIncomeExpenseInfo().getFamilyIncome()&lt;$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuranceTypeEnum.ACCIDENT, 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.dafy.drools.model.*</t>
-  </si>
-  <si>
-    <t>com.dafy.drools.model.fact.*</t>
-  </si>
-  <si>
-    <t>com.dafy.drools.constants.*</t>
-  </si>
-  <si>
-    <t>com.dafy.drools.model.request.SelfInsuranceRequest</t>
-  </si>
-  <si>
-    <t>com.dafy.drools.model.response.InsuranceRecommendResponse</t>
-  </si>
-  <si>
-    <t>com.dafy.drools.model.response.InsuranceRecommendResponse resp</t>
-  </si>
-  <si>
-    <t>com.dafy.drools.model.fact.InsuranceTypeResult res2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceTypeEnum.SAVING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -674,22 +690,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="38.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -697,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -705,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -713,63 +729,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -777,15 +793,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -796,117 +812,146 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="C20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="11"/>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="11"/>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="11"/>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="11"/>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="11"/>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:D15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/insurance-rules/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
+++ b/insurance-rules/src/main/resources/selfInsuranceRecommendRules/selfInsurance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>PRIORITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>室外工作推荐意外险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10, 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身体不健康推荐医疗险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -199,9 +191,6 @@
     <t>InsuranceTypeEnum.MEDICAL, 5</t>
   </si>
   <si>
-    <t>InsuranceTypeEnum.MEDICAL, 2</t>
-  </si>
-  <si>
     <t>RuleTable insuranceDemo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +244,25 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfHealthInfo.Health.NO</t>
+  </si>
+  <si>
+    <t>req.getSelfHealthInfo().getHealth == ($1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceTypeEnum.SAVING, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -700,12 +708,13 @@
   <cols>
     <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="38.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="5" width="38.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -721,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -729,79 +738,79 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -815,142 +824,153 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="11"/>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="11"/>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="C21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="1" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
